--- a/artwork/Images.xlsx
+++ b/artwork/Images.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonholmes/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonholmes/Documents/GitHub/RotateImages/artwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19840" yWindow="500" windowWidth="31360" windowHeight="22280" tabRatio="500"/>
+    <workbookView xWindow="12840" yWindow="460" windowWidth="31360" windowHeight="22280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -881,7 +881,7 @@
   <dimension ref="A2:CM21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BA28" sqref="BA28"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
+      <c r="N11" s="5"/>
       <c r="O11" s="17" t="s">
         <v>0</v>
       </c>
@@ -3481,6 +3481,156 @@
     <sortCondition descending="1" ref="BB3:BQ3"/>
   </sortState>
   <conditionalFormatting sqref="K19:O19 S16">
+    <cfRule type="colorScale" priority="309">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW4">
+    <cfRule type="colorScale" priority="149">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S6:S15 D19:P19 S17:S19">
+    <cfRule type="colorScale" priority="307">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG19">
+    <cfRule type="colorScale" priority="306">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S14:S15">
+    <cfRule type="colorScale" priority="305">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S18">
+    <cfRule type="colorScale" priority="304">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S15:S19">
+    <cfRule type="colorScale" priority="303">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S10">
+    <cfRule type="colorScale" priority="302">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S12">
+    <cfRule type="colorScale" priority="301">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
+    <cfRule type="colorScale" priority="300">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="colorScale" priority="298">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M10 M13:M19">
+    <cfRule type="colorScale" priority="297">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5:P8 P15:P19">
+    <cfRule type="colorScale" priority="296">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8">
+    <cfRule type="colorScale" priority="295">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="colorScale" priority="294">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
     <cfRule type="colorScale" priority="293">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -3490,7 +3640,1007 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW4">
+  <conditionalFormatting sqref="I9">
+    <cfRule type="colorScale" priority="292">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F10 F13:F19">
+    <cfRule type="colorScale" priority="291">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E10 E13:E18">
+    <cfRule type="colorScale" priority="290">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G10 G13:G18">
+    <cfRule type="colorScale" priority="289">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:M11 O11">
+    <cfRule type="colorScale" priority="288">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:M10">
+    <cfRule type="colorScale" priority="287">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:N12">
+    <cfRule type="colorScale" priority="286">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P8:Q12">
+    <cfRule type="colorScale" priority="285">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P12:Q15">
+    <cfRule type="colorScale" priority="284">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:H16">
+    <cfRule type="colorScale" priority="283">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G10 G13:G19">
+    <cfRule type="colorScale" priority="282">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F10 F13:F18">
+    <cfRule type="colorScale" priority="281">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H10 H13:H18">
+    <cfRule type="colorScale" priority="280">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7:I16">
+    <cfRule type="colorScale" priority="279">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O12">
+    <cfRule type="colorScale" priority="278">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O13">
+    <cfRule type="colorScale" priority="277">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10">
+    <cfRule type="colorScale" priority="276">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9">
+    <cfRule type="colorScale" priority="275">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T16">
+    <cfRule type="colorScale" priority="274">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T15">
+    <cfRule type="colorScale" priority="273">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U14">
+    <cfRule type="colorScale" priority="272">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V14:Y14 AC14:AH14">
+    <cfRule type="colorScale" priority="271">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U17:W17 AE17:AH17">
+    <cfRule type="colorScale" priority="270">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X13">
+    <cfRule type="colorScale" priority="269">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X12">
+    <cfRule type="colorScale" priority="268">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X11">
+    <cfRule type="colorScale" priority="267">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y10">
+    <cfRule type="colorScale" priority="266">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T7:Y7 AC7:AH7">
+    <cfRule type="colorScale" priority="265">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U6:Y6 AC6:AG6">
+    <cfRule type="colorScale" priority="264">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U8:Y8 AC8:AG8">
+    <cfRule type="colorScale" priority="263">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA4:AA16">
+    <cfRule type="colorScale" priority="262">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z5:Z15">
+    <cfRule type="colorScale" priority="261">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB5:AB15">
+    <cfRule type="colorScale" priority="260">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X17:AA18">
+    <cfRule type="colorScale" priority="259">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB17:AD18">
+    <cfRule type="colorScale" priority="258">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W9:AE9">
+    <cfRule type="colorScale" priority="257">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T8:Y8 AC8:AH8">
+    <cfRule type="colorScale" priority="256">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U7:Y7 AC7:AG7">
+    <cfRule type="colorScale" priority="255">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9:Y9 AC9:AG9">
+    <cfRule type="colorScale" priority="254">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W10:AE10">
+    <cfRule type="colorScale" priority="253">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB16">
+    <cfRule type="colorScale" priority="252">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC16">
+    <cfRule type="colorScale" priority="251">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z16">
+    <cfRule type="colorScale" priority="250">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y16">
+    <cfRule type="colorScale" priority="249">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R16">
+    <cfRule type="colorScale" priority="248">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R6:R15 R17">
+    <cfRule type="colorScale" priority="247">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R14:R15">
+    <cfRule type="colorScale" priority="246">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R15:R17">
+    <cfRule type="colorScale" priority="244">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R10">
+    <cfRule type="colorScale" priority="243">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R12">
+    <cfRule type="colorScale" priority="242">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI4">
+    <cfRule type="colorScale" priority="238">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI4">
+    <cfRule type="colorScale" priority="237">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI18">
+    <cfRule type="colorScale" priority="236">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI18">
+    <cfRule type="colorScale" priority="235">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI19">
+    <cfRule type="colorScale" priority="234">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI19">
+    <cfRule type="colorScale" priority="233">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH19">
+    <cfRule type="colorScale" priority="232">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH19">
+    <cfRule type="colorScale" priority="231">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6">
+    <cfRule type="colorScale" priority="211">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
+    <cfRule type="colorScale" priority="210">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="colorScale" priority="209">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="colorScale" priority="208">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="colorScale" priority="207">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:O12">
+    <cfRule type="colorScale" priority="206">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:M11">
+    <cfRule type="colorScale" priority="205">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:N13">
+    <cfRule type="colorScale" priority="204">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O13">
+    <cfRule type="colorScale" priority="203">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14">
+    <cfRule type="colorScale" priority="202">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O11">
+    <cfRule type="colorScale" priority="201">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10">
+    <cfRule type="colorScale" priority="200">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="colorScale" priority="199">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="colorScale" priority="198">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q19">
+    <cfRule type="colorScale" priority="197">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q19">
+    <cfRule type="colorScale" priority="196">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R19">
+    <cfRule type="colorScale" priority="195">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R19">
+    <cfRule type="colorScale" priority="194">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R18">
+    <cfRule type="colorScale" priority="193">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R18">
+    <cfRule type="colorScale" priority="192">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="colorScale" priority="191">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="colorScale" priority="190">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4:R4">
+    <cfRule type="colorScale" priority="189">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4:R4">
+    <cfRule type="colorScale" priority="188">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="colorScale" priority="187">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="colorScale" priority="186">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ17">
+    <cfRule type="colorScale" priority="150">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV4">
+    <cfRule type="colorScale" priority="148">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU5">
+    <cfRule type="colorScale" priority="147">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU6:AU9 AU13:AU18">
+    <cfRule type="colorScale" priority="146">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX5:AX7 AX15:AX18">
+    <cfRule type="colorScale" priority="145">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT8">
+    <cfRule type="colorScale" priority="144">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS8">
+    <cfRule type="colorScale" priority="143">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR8">
+    <cfRule type="colorScale" priority="142">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ9">
+    <cfRule type="colorScale" priority="141">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN4:AN9 AN13:AN18">
+    <cfRule type="colorScale" priority="140">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM5:AM9 AM13:AM17">
+    <cfRule type="colorScale" priority="139">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO5:AO9 AO13:AO17">
+    <cfRule type="colorScale" priority="138">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK11:AW11">
+    <cfRule type="colorScale" priority="137">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL10:AV10">
+    <cfRule type="colorScale" priority="136">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL12:AV12">
+    <cfRule type="colorScale" priority="135">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX8:AY11">
+    <cfRule type="colorScale" priority="134">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX12:AY14">
     <cfRule type="colorScale" priority="133">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -3500,78 +4650,808 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S6:S15 D19:P19 S17:S19">
-    <cfRule type="colorScale" priority="291">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG19">
-    <cfRule type="colorScale" priority="290">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S14:S15">
-    <cfRule type="colorScale" priority="289">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S18">
-    <cfRule type="colorScale" priority="288">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S15:S19">
-    <cfRule type="colorScale" priority="287">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S10">
-    <cfRule type="colorScale" priority="286">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S12">
-    <cfRule type="colorScale" priority="285">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
-    <cfRule type="colorScale" priority="284">
+  <conditionalFormatting sqref="AP7:AP15">
+    <cfRule type="colorScale" priority="132">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO4:AO9 AO13:AO18">
+    <cfRule type="colorScale" priority="131">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN5:AN9 AN13:AN17">
+    <cfRule type="colorScale" priority="130">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP5:AP9 AP13:AP17">
+    <cfRule type="colorScale" priority="129">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ7:AQ15">
+    <cfRule type="colorScale" priority="128">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW12">
+    <cfRule type="colorScale" priority="127">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW13">
+    <cfRule type="colorScale" priority="126">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW10">
+    <cfRule type="colorScale" priority="125">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW9">
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK19">
+    <cfRule type="colorScale" priority="123">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK19">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY19">
+    <cfRule type="colorScale" priority="121">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY19">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ19">
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ19">
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ18">
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ18">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB16">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BO19">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB15">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC14">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BD14:BH14 BK14:BQ14">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC17:BF17 BM17:BQ17">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF13">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF12">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF11">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG10">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB7:BH7 BK7:BQ7">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC6:BH6 BK6:BP6">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC8:BH8 BK8:BP8">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BI4:BI16">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH5:BH15">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ5:BJ15">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF17:BJ18">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ17:BM18">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE9:BN9">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB8:BH8 BK8:BQ8">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC7:BH7 BK7:BP7">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC9:BH9 BK9:BP9">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE10:BN10">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ16">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK16">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH16">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG16">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BQ4">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BQ4">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BQ18">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BQ18">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BQ19">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BQ19">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BP19">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BP19">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC16">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BP19">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC15">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BD14">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG13">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG12">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG11">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH10">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ4:BJ16">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BI5:BI15">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK5:BK15">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK16">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BL16">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BI16">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH16">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BR4">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BR4">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BR18">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BR18">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BR19">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BR19">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BQ19">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BQ19">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB19">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB19">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB4:BB5">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB4:BB5">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC4">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC4">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3581,1736 +5461,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="colorScale" priority="283">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="colorScale" priority="282">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M10 M13:M19">
-    <cfRule type="colorScale" priority="281">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5:P8 P15:P19">
-    <cfRule type="colorScale" priority="280">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L8">
-    <cfRule type="colorScale" priority="279">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="colorScale" priority="278">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="colorScale" priority="277">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="colorScale" priority="276">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F10 F13:F19">
-    <cfRule type="colorScale" priority="275">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E10 E13:E18">
-    <cfRule type="colorScale" priority="274">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G10 G13:G18">
-    <cfRule type="colorScale" priority="273">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:O11">
-    <cfRule type="colorScale" priority="272">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:N10">
-    <cfRule type="colorScale" priority="271">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:N12">
-    <cfRule type="colorScale" priority="270">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P8:Q12">
-    <cfRule type="colorScale" priority="269">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P12:Q15">
-    <cfRule type="colorScale" priority="268">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7:H16">
-    <cfRule type="colorScale" priority="267">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G10 G13:G19">
-    <cfRule type="colorScale" priority="266">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F10 F13:F18">
-    <cfRule type="colorScale" priority="265">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H10 H13:H18">
-    <cfRule type="colorScale" priority="264">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:I16">
-    <cfRule type="colorScale" priority="263">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O12">
-    <cfRule type="colorScale" priority="262">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O13">
-    <cfRule type="colorScale" priority="261">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O10">
-    <cfRule type="colorScale" priority="260">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O9">
-    <cfRule type="colorScale" priority="259">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T16">
-    <cfRule type="colorScale" priority="258">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T15">
-    <cfRule type="colorScale" priority="257">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U14">
-    <cfRule type="colorScale" priority="256">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V14:Y14 AC14:AH14">
-    <cfRule type="colorScale" priority="255">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U17:W17 AE17:AH17">
-    <cfRule type="colorScale" priority="254">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X13">
-    <cfRule type="colorScale" priority="253">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X12">
-    <cfRule type="colorScale" priority="252">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X11">
-    <cfRule type="colorScale" priority="251">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y10">
-    <cfRule type="colorScale" priority="250">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T7:Y7 AC7:AH7">
-    <cfRule type="colorScale" priority="249">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U6:Y6 AC6:AG6">
-    <cfRule type="colorScale" priority="248">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U8:Y8 AC8:AG8">
-    <cfRule type="colorScale" priority="247">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA4:AA16">
-    <cfRule type="colorScale" priority="246">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z5:Z15">
-    <cfRule type="colorScale" priority="245">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB5:AB15">
-    <cfRule type="colorScale" priority="244">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X17:AA18">
-    <cfRule type="colorScale" priority="243">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB17:AD18">
-    <cfRule type="colorScale" priority="242">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W9:AE9">
-    <cfRule type="colorScale" priority="241">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T8:Y8 AC8:AH8">
-    <cfRule type="colorScale" priority="240">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U7:Y7 AC7:AG7">
-    <cfRule type="colorScale" priority="239">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U9:Y9 AC9:AG9">
-    <cfRule type="colorScale" priority="238">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W10:AE10">
-    <cfRule type="colorScale" priority="237">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB16">
-    <cfRule type="colorScale" priority="236">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC16">
-    <cfRule type="colorScale" priority="235">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z16">
-    <cfRule type="colorScale" priority="234">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y16">
-    <cfRule type="colorScale" priority="233">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R16">
-    <cfRule type="colorScale" priority="232">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R6:R15 R17">
-    <cfRule type="colorScale" priority="231">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R14:R15">
-    <cfRule type="colorScale" priority="230">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R15:R17">
-    <cfRule type="colorScale" priority="228">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R10">
-    <cfRule type="colorScale" priority="227">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R12">
-    <cfRule type="colorScale" priority="226">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI4">
-    <cfRule type="colorScale" priority="222">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI4">
-    <cfRule type="colorScale" priority="221">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI18">
-    <cfRule type="colorScale" priority="220">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI18">
-    <cfRule type="colorScale" priority="219">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI19">
-    <cfRule type="colorScale" priority="218">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI19">
-    <cfRule type="colorScale" priority="217">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH19">
-    <cfRule type="colorScale" priority="216">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH19">
-    <cfRule type="colorScale" priority="215">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6">
-    <cfRule type="colorScale" priority="195">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
-    <cfRule type="colorScale" priority="194">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="colorScale" priority="193">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="colorScale" priority="192">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
-    <cfRule type="colorScale" priority="191">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:O12">
-    <cfRule type="colorScale" priority="190">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:N11">
-    <cfRule type="colorScale" priority="189">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13:N13">
-    <cfRule type="colorScale" priority="188">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O13">
-    <cfRule type="colorScale" priority="187">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O14">
-    <cfRule type="colorScale" priority="186">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O11">
-    <cfRule type="colorScale" priority="185">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O10">
-    <cfRule type="colorScale" priority="184">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="colorScale" priority="183">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="colorScale" priority="182">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q19">
-    <cfRule type="colorScale" priority="181">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q19">
-    <cfRule type="colorScale" priority="180">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R19">
-    <cfRule type="colorScale" priority="179">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R19">
-    <cfRule type="colorScale" priority="178">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R18">
-    <cfRule type="colorScale" priority="177">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R18">
-    <cfRule type="colorScale" priority="176">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="colorScale" priority="175">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="colorScale" priority="174">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q4:R4">
-    <cfRule type="colorScale" priority="173">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q4:R4">
-    <cfRule type="colorScale" priority="172">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="colorScale" priority="171">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="colorScale" priority="170">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ17">
-    <cfRule type="colorScale" priority="134">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV4">
-    <cfRule type="colorScale" priority="132">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU5">
-    <cfRule type="colorScale" priority="131">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU6:AU9 AU13:AU18">
-    <cfRule type="colorScale" priority="130">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX5:AX7 AX15:AX18">
-    <cfRule type="colorScale" priority="129">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT8">
-    <cfRule type="colorScale" priority="128">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS8">
-    <cfRule type="colorScale" priority="127">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR8">
-    <cfRule type="colorScale" priority="126">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ9">
-    <cfRule type="colorScale" priority="125">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN4:AN9 AN13:AN18">
-    <cfRule type="colorScale" priority="124">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM5:AM9 AM13:AM17">
-    <cfRule type="colorScale" priority="123">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO5:AO9 AO13:AO17">
-    <cfRule type="colorScale" priority="122">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK11:AW11">
-    <cfRule type="colorScale" priority="121">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL10:AV10">
-    <cfRule type="colorScale" priority="120">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL12:AV12">
-    <cfRule type="colorScale" priority="119">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX8:AY11">
-    <cfRule type="colorScale" priority="118">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX12:AY14">
-    <cfRule type="colorScale" priority="117">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP7:AP15">
-    <cfRule type="colorScale" priority="116">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO4:AO9 AO13:AO18">
-    <cfRule type="colorScale" priority="115">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN5:AN9 AN13:AN17">
-    <cfRule type="colorScale" priority="114">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP5:AP9 AP13:AP17">
-    <cfRule type="colorScale" priority="113">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ7:AQ15">
-    <cfRule type="colorScale" priority="112">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW12">
-    <cfRule type="colorScale" priority="111">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW13">
-    <cfRule type="colorScale" priority="110">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW10">
-    <cfRule type="colorScale" priority="109">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW9">
-    <cfRule type="colorScale" priority="108">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK19">
-    <cfRule type="colorScale" priority="107">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK19">
-    <cfRule type="colorScale" priority="106">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY19">
-    <cfRule type="colorScale" priority="105">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY19">
-    <cfRule type="colorScale" priority="104">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ19">
-    <cfRule type="colorScale" priority="103">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ19">
-    <cfRule type="colorScale" priority="102">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ18">
-    <cfRule type="colorScale" priority="101">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ18">
-    <cfRule type="colorScale" priority="100">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB16">
-    <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BO19">
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB15">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC14">
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BD14:BH14 BK14:BQ14">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC17:BF17 BM17:BQ17">
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF13">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF12">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF11">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BG10">
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB7:BH7 BK7:BQ7">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC6:BH6 BK6:BP6">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC8:BH8 BK8:BP8">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BI4:BI16">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH5:BH15">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ5:BJ15">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF17:BJ18">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ17:BM18">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BE9:BN9">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB8:BH8 BK8:BQ8">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC7:BH7 BK7:BP7">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC9:BH9 BK9:BP9">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BE10:BN10">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ16">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BK16">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH16">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BG16">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BQ4">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BQ4">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BQ18">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BQ18">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BQ19">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BQ19">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP19">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP19">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC16">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP19">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC15">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BD14">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BG13">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BG12">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BG11">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH10">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ4:BJ16">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BI5:BI15">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BK5:BK15">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BK16">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL16">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BI16">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -5320,7 +5470,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH16">
+  <conditionalFormatting sqref="N4">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -5330,7 +5480,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR4">
+  <conditionalFormatting sqref="N11">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -5340,7 +5490,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR4">
+  <conditionalFormatting sqref="N11">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -5350,7 +5500,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR18">
+  <conditionalFormatting sqref="N10">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -5360,7 +5510,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR18">
+  <conditionalFormatting sqref="N10">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -5370,7 +5520,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR19">
+  <conditionalFormatting sqref="N9">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -5380,7 +5530,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR19">
+  <conditionalFormatting sqref="N9">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -5390,27 +5540,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ19">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BQ19">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB19">
+  <conditionalFormatting sqref="N7">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -5420,7 +5550,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB19">
+  <conditionalFormatting sqref="N7">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -5430,7 +5560,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB4:BB5">
+  <conditionalFormatting sqref="N6">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -5440,7 +5570,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB4:BB5">
+  <conditionalFormatting sqref="N6">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -5450,7 +5580,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC4">
+  <conditionalFormatting sqref="N8">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -5460,7 +5590,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC4">
+  <conditionalFormatting sqref="N8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
